--- a/FlocculantsData.xlsx
+++ b/FlocculantsData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A1D8F1-C6D7-4403-99D1-28A96871EEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C83B23-ACD8-467E-8E55-52B958F88869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Besfloc510CA" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>Время перемешивания</t>
   </si>
   <si>
-    <t>t, с</t>
-  </si>
-  <si>
     <t>Скорость осаждения</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>отл</t>
+  </si>
+  <si>
+    <t>t_пер, с</t>
   </si>
 </sst>
 </file>
@@ -516,21 +516,21 @@
   <dimension ref="A1:J315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A248" sqref="A248:H248"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -579,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>4</v>
@@ -591,10 +591,10 @@
         <v>6</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0</v>
       </c>
@@ -627,10 +627,10 @@
         <v>0.32828282828282829</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0.5</v>
       </c>
@@ -663,10 +663,10 @@
         <v>0.42567567567567566</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.5</v>
       </c>
@@ -699,10 +699,10 @@
         <v>0.52755905511811019</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>0.5</v>
       </c>
@@ -735,10 +735,10 @@
         <v>0.55833333333333335</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>0.5</v>
       </c>
@@ -771,10 +771,10 @@
         <v>0.63809523809523805</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>0.5</v>
       </c>
@@ -807,10 +807,10 @@
         <v>0.62616822429906538</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.5</v>
       </c>
@@ -843,10 +843,10 @@
         <v>0.58119658119658124</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>0.5</v>
       </c>
@@ -879,10 +879,10 @@
         <v>0.45255474452554745</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>0.5</v>
       </c>
@@ -915,10 +915,10 @@
         <v>0.5078125</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>0.5</v>
       </c>
@@ -951,10 +951,10 @@
         <v>0.55462184873949583</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>0.5</v>
       </c>
@@ -987,10 +987,10 @@
         <v>0.62264150943396224</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>0.5</v>
       </c>
@@ -1023,10 +1023,10 @@
         <v>0.61111111111111116</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>0.5</v>
       </c>
@@ -1059,10 +1059,10 @@
         <v>0.57017543859649122</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>0.5</v>
       </c>
@@ -1095,10 +1095,10 @@
         <v>0.48979591836734693</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>0.5</v>
       </c>
@@ -1131,10 +1131,10 @@
         <v>0.53956834532374098</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>0.5</v>
       </c>
@@ -1167,10 +1167,10 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>0.5</v>
       </c>
@@ -1203,10 +1203,10 @@
         <v>0.58119658119658124</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>0.5</v>
       </c>
@@ -1239,10 +1239,10 @@
         <v>0.55932203389830504</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>0.5</v>
       </c>
@@ -1275,10 +1275,10 @@
         <v>0.51181102362204722</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>0.5</v>
       </c>
@@ -1311,10 +1311,10 @@
         <v>0.48979591836734693</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>0.5</v>
       </c>
@@ -1347,10 +1347,10 @@
         <v>0.51369863013698636</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>0.5</v>
       </c>
@@ -1383,10 +1383,10 @@
         <v>0.515625</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>0.5</v>
       </c>
@@ -1419,10 +1419,10 @@
         <v>0.52713178294573648</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>0.5</v>
       </c>
@@ -1455,10 +1455,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>0.5</v>
       </c>
@@ -1491,10 +1491,10 @@
         <v>0.51181102362204722</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>1</v>
       </c>
@@ -1527,10 +1527,10 @@
         <v>0.47727272727272729</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>1</v>
       </c>
@@ -1563,10 +1563,10 @@
         <v>0.53174603174603174</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>1</v>
       </c>
@@ -1599,10 +1599,10 @@
         <v>0.57264957264957261</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -1635,10 +1635,10 @@
         <v>0.65048543689320393</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>1</v>
       </c>
@@ -1671,10 +1671,10 @@
         <v>0.63207547169811318</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>1</v>
       </c>
@@ -1707,10 +1707,10 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>1</v>
       </c>
@@ -1743,10 +1743,10 @@
         <v>0.46969696969696972</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>1</v>
       </c>
@@ -1779,10 +1779,10 @@
         <v>0.51587301587301593</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>1</v>
       </c>
@@ -1815,10 +1815,10 @@
         <v>0.5641025641025641</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>1</v>
       </c>
@@ -1851,10 +1851,10 @@
         <v>0.64077669902912626</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>1</v>
       </c>
@@ -1887,10 +1887,10 @@
         <v>0.62264150943396224</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>1</v>
       </c>
@@ -1923,10 +1923,10 @@
         <v>0.5803571428571429</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>1</v>
       </c>
@@ -1959,10 +1959,10 @@
         <v>0.51428571428571423</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>1</v>
       </c>
@@ -1995,10 +1995,10 @@
         <v>0.54347826086956519</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>1</v>
       </c>
@@ -2031,10 +2031,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>1</v>
       </c>
@@ -2067,10 +2067,10 @@
         <v>0.59130434782608698</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>1</v>
       </c>
@@ -2103,10 +2103,10 @@
         <v>0.5641025641025641</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>1</v>
       </c>
@@ -2139,10 +2139,10 @@
         <v>0.52419354838709675</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>1</v>
       </c>
@@ -2175,10 +2175,10 @@
         <v>0.49655172413793103</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>1</v>
       </c>
@@ -2211,10 +2211,10 @@
         <v>0.52447552447552448</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>1</v>
       </c>
@@ -2247,10 +2247,10 @@
         <v>0.52380952380952384</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>1</v>
       </c>
@@ -2283,10 +2283,10 @@
         <v>0.58119658119658124</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>1</v>
       </c>
@@ -2319,10 +2319,10 @@
         <v>0.5641025641025641</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>1</v>
       </c>
@@ -2355,10 +2355,10 @@
         <v>0.51587301587301593</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>1.5</v>
       </c>
@@ -2391,10 +2391,10 @@
         <v>0.64948453608247425</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>1.5</v>
       </c>
@@ -2427,10 +2427,10 @@
         <v>0.73563218390804597</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>1.5</v>
       </c>
@@ -2463,10 +2463,10 @@
         <v>0.7415730337078652</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>1.5</v>
       </c>
@@ -2499,10 +2499,10 @@
         <v>0.68041237113402064</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>1.5</v>
       </c>
@@ -2535,10 +2535,10 @@
         <v>0.62135922330097082</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>1.5</v>
       </c>
@@ -2571,10 +2571,10 @@
         <v>0.65384615384615385</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>1.5</v>
       </c>
@@ -2607,10 +2607,10 @@
         <v>0.64948453608247425</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>1.5</v>
       </c>
@@ -2643,10 +2643,10 @@
         <v>0.74117647058823533</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>1.5</v>
       </c>
@@ -2679,10 +2679,10 @@
         <v>0.75862068965517238</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>1.5</v>
       </c>
@@ -2715,10 +2715,10 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>1.5</v>
       </c>
@@ -2751,10 +2751,10 @@
         <v>0.64646464646464652</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>1.5</v>
       </c>
@@ -2787,10 +2787,10 @@
         <v>0.59649122807017541</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>1.5</v>
       </c>
@@ -2823,10 +2823,10 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>1.5</v>
       </c>
@@ -2859,10 +2859,10 @@
         <v>0.7191011235955056</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>1.5</v>
       </c>
@@ -2895,10 +2895,10 @@
         <v>0.70967741935483875</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>1.5</v>
       </c>
@@ -2931,10 +2931,10 @@
         <v>0.65656565656565657</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>1.5</v>
       </c>
@@ -2967,10 +2967,10 @@
         <v>0.60377358490566035</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>1.5</v>
       </c>
@@ -3003,10 +3003,10 @@
         <v>0.66346153846153844</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>1.5</v>
       </c>
@@ -3039,10 +3039,10 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>1.5</v>
       </c>
@@ -3075,10 +3075,10 @@
         <v>0.70329670329670335</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>1.5</v>
       </c>
@@ -3111,10 +3111,10 @@
         <v>0.71739130434782605</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>1.5</v>
       </c>
@@ -3147,10 +3147,10 @@
         <v>0.67010309278350511</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>1.5</v>
       </c>
@@ -3183,10 +3183,10 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>1.5</v>
       </c>
@@ -3219,10 +3219,10 @@
         <v>0.59649122807017541</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>2</v>
       </c>
@@ -3255,10 +3255,10 @@
         <v>0.66315789473684206</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>2</v>
       </c>
@@ -3291,10 +3291,10 @@
         <v>0.75294117647058822</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>2</v>
       </c>
@@ -3327,10 +3327,10 @@
         <v>0.75862068965517238</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>2</v>
       </c>
@@ -3363,10 +3363,10 @@
         <v>0.69473684210526321</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>2</v>
       </c>
@@ -3399,10 +3399,10 @@
         <v>0.63366336633663367</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>2</v>
       </c>
@@ -3435,10 +3435,10 @@
         <v>0.68</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>2</v>
       </c>
@@ -3471,10 +3471,10 @@
         <v>0.66315789473684206</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>2</v>
       </c>
@@ -3507,10 +3507,10 @@
         <v>0.75</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>2</v>
       </c>
@@ -3543,10 +3543,10 @@
         <v>0.76744186046511631</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>2</v>
       </c>
@@ -3579,10 +3579,10 @@
         <v>0.69148936170212771</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>2</v>
       </c>
@@ -3615,10 +3615,10 @@
         <v>0.65979381443298968</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>2</v>
       </c>
@@ -3651,10 +3651,10 @@
         <v>0.61818181818181817</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>2</v>
       </c>
@@ -3687,10 +3687,10 @@
         <v>0.65625</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>2</v>
       </c>
@@ -3723,10 +3723,10 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>2</v>
       </c>
@@ -3759,10 +3759,10 @@
         <v>0.72527472527472525</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>2</v>
       </c>
@@ -3795,10 +3795,10 @@
         <v>0.67010309278350511</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>2</v>
       </c>
@@ -3831,10 +3831,10 @@
         <v>0.62135922330097082</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>2</v>
       </c>
@@ -3867,10 +3867,10 @@
         <v>0.68316831683168322</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>2</v>
       </c>
@@ -3903,10 +3903,10 @@
         <v>0.64948453608247425</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>2</v>
       </c>
@@ -3939,10 +3939,10 @@
         <v>0.73563218390804597</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>2</v>
       </c>
@@ -3975,10 +3975,10 @@
         <v>0.75</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>2</v>
       </c>
@@ -4011,10 +4011,10 @@
         <v>0.69148936170212771</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>2</v>
       </c>
@@ -4047,10 +4047,10 @@
         <v>0.64646464646464652</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>2</v>
       </c>
@@ -4083,10 +4083,10 @@
         <v>0.60176991150442483</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>2.5</v>
       </c>
@@ -4119,10 +4119,10 @@
         <v>0.67368421052631577</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>2.5</v>
       </c>
@@ -4155,10 +4155,10 @@
         <v>0.76470588235294112</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>2.5</v>
       </c>
@@ -4191,10 +4191,10 @@
         <v>0.77011494252873558</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>2.5</v>
       </c>
@@ -4227,10 +4227,10 @@
         <v>0.69473684210526321</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>2.5</v>
       </c>
@@ -4263,10 +4263,10 @@
         <v>0.64356435643564358</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>2.5</v>
       </c>
@@ -4299,10 +4299,10 @@
         <v>0.7</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>2.5</v>
       </c>
@@ -4335,10 +4335,10 @@
         <v>0.67368421052631577</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>2.5</v>
       </c>
@@ -4371,10 +4371,10 @@
         <v>0.77380952380952384</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>2.5</v>
       </c>
@@ -4407,10 +4407,10 @@
         <v>0.77906976744186052</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>2.5</v>
       </c>
@@ -4443,10 +4443,10 @@
         <v>0.7021276595744681</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>2.5</v>
       </c>
@@ -4479,10 +4479,10 @@
         <v>0.67010309278350511</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>2.5</v>
       </c>
@@ -4515,10 +4515,10 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>2.5</v>
       </c>
@@ -4551,10 +4551,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>2.5</v>
       </c>
@@ -4587,10 +4587,10 @@
         <v>0.73863636363636365</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>2.5</v>
       </c>
@@ -4623,10 +4623,10 @@
         <v>0.73626373626373631</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>2.5</v>
       </c>
@@ -4659,10 +4659,10 @@
         <v>0.68041237113402064</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>2.5</v>
       </c>
@@ -4695,10 +4695,10 @@
         <v>0.6310679611650486</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>2.5</v>
       </c>
@@ -4731,10 +4731,10 @@
         <v>0.69306930693069302</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>2.5</v>
       </c>
@@ -4767,10 +4767,10 @@
         <v>0.65979381443298968</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>2.5</v>
       </c>
@@ -4803,10 +4803,10 @@
         <v>0.74712643678160917</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>2.5</v>
       </c>
@@ -4839,10 +4839,10 @@
         <v>0.76136363636363635</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>2.5</v>
       </c>
@@ -4875,10 +4875,10 @@
         <v>0.7021276595744681</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>2.5</v>
       </c>
@@ -4911,10 +4911,10 @@
         <v>0.65656565656565657</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>2.5</v>
       </c>
@@ -4947,10 +4947,10 @@
         <v>0.61946902654867253</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>3</v>
       </c>
@@ -4983,10 +4983,10 @@
         <v>0.68085106382978722</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>3</v>
       </c>
@@ -5019,10 +5019,10 @@
         <v>0.77380952380952384</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>3</v>
       </c>
@@ -5055,10 +5055,10 @@
         <v>0.77906976744186052</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>3</v>
       </c>
@@ -5091,10 +5091,10 @@
         <v>0.7021276595744681</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>3</v>
       </c>
@@ -5127,10 +5127,10 @@
         <v>0.65656565656565657</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>3</v>
       </c>
@@ -5163,10 +5163,10 @@
         <v>0.70707070707070707</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>3</v>
       </c>
@@ -5199,10 +5199,10 @@
         <v>0.68817204301075274</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>3</v>
       </c>
@@ -5235,10 +5235,10 @@
         <v>0.7831325301204819</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>3</v>
       </c>
@@ -5271,10 +5271,10 @@
         <v>0.78823529411764703</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>3</v>
       </c>
@@ -5307,10 +5307,10 @@
         <v>0.71739130434782605</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>3</v>
       </c>
@@ -5343,10 +5343,10 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>3</v>
       </c>
@@ -5379,10 +5379,10 @@
         <v>0.64814814814814814</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>3</v>
       </c>
@@ -5415,10 +5415,10 @@
         <v>0.67368421052631577</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>3</v>
       </c>
@@ -5451,10 +5451,10 @@
         <v>0.7558139534883721</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>3</v>
       </c>
@@ -5487,10 +5487,10 @@
         <v>0.77011494252873558</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>3</v>
       </c>
@@ -5523,10 +5523,10 @@
         <v>0.6875</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>3</v>
       </c>
@@ -5559,10 +5559,10 @@
         <v>0.65</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>3</v>
       </c>
@@ -5595,10 +5595,10 @@
         <v>0.7</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>3</v>
       </c>
@@ -5631,10 +5631,10 @@
         <v>0.67368421052631577</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>3</v>
       </c>
@@ -5667,10 +5667,10 @@
         <v>0.76470588235294112</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>3</v>
       </c>
@@ -5703,10 +5703,10 @@
         <v>0.77906976744186052</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>3</v>
       </c>
@@ -5739,10 +5739,10 @@
         <v>0.70967741935483875</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>3</v>
       </c>
@@ -5775,10 +5775,10 @@
         <v>0.67010309278350511</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>3</v>
       </c>
@@ -5811,10 +5811,10 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="13">
         <v>3.5</v>
       </c>
@@ -5847,10 +5847,10 @@
         <v>0.8314606741573034</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="13">
         <v>3.5</v>
       </c>
@@ -5883,10 +5883,10 @@
         <v>0.96385542168674698</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="13">
         <v>3.5</v>
       </c>
@@ -5919,10 +5919,10 @@
         <v>1.1071428571428572</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
         <v>3.5</v>
       </c>
@@ -5955,10 +5955,10 @@
         <v>1.0777777777777777</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="13">
         <v>3.5</v>
       </c>
@@ -5991,10 +5991,10 @@
         <v>0.81896551724137934</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="13">
         <v>3.5</v>
       </c>
@@ -6027,10 +6027,10 @@
         <v>0.78333333333333333</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="13">
         <v>3.5</v>
       </c>
@@ -6063,10 +6063,10 @@
         <v>0.79569892473118276</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="13">
         <v>3.5</v>
       </c>
@@ -6099,10 +6099,10 @@
         <v>1</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="13">
         <v>3.5</v>
       </c>
@@ -6135,10 +6135,10 @@
         <v>1.1772151898734178</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="13">
         <v>3.5</v>
       </c>
@@ -6171,10 +6171,10 @@
         <v>1.0652173913043479</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="13">
         <v>3.5</v>
       </c>
@@ -6207,10 +6207,10 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="13">
         <v>3.5</v>
       </c>
@@ -6243,10 +6243,10 @@
         <v>0.80508474576271183</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="13">
         <v>3.5</v>
       </c>
@@ -6279,10 +6279,10 @@
         <v>0.94623655913978499</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="13">
         <v>3.5</v>
       </c>
@@ -6315,10 +6315,10 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="13">
         <v>3.5</v>
       </c>
@@ -6351,10 +6351,10 @@
         <v>1.1411764705882352</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="13">
         <v>3.5</v>
       </c>
@@ -6387,10 +6387,10 @@
         <v>1.0106382978723405</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="13">
         <v>3.5</v>
       </c>
@@ -6423,10 +6423,10 @@
         <v>0.95959595959595956</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="13">
         <v>3.5</v>
       </c>
@@ -6459,10 +6459,10 @@
         <v>0.89622641509433965</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="13">
         <v>3.5</v>
       </c>
@@ -6495,10 +6495,10 @@
         <v>0.81481481481481477</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="13">
         <v>3.5</v>
       </c>
@@ -6531,10 +6531,10 @@
         <v>0.79487179487179482</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="13">
         <v>3.5</v>
       </c>
@@ -6567,10 +6567,10 @@
         <v>1.0217391304347827</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="13">
         <v>3.5</v>
       </c>
@@ -6603,10 +6603,10 @@
         <v>0.96875</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="13">
         <v>3.5</v>
       </c>
@@ -6639,10 +6639,10 @@
         <v>0.9494949494949495</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="13">
         <v>3.5</v>
       </c>
@@ -6675,10 +6675,10 @@
         <v>0.91176470588235292</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="13">
         <v>4</v>
       </c>
@@ -6711,10 +6711,10 @@
         <v>0.84090909090909094</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="13">
         <v>4</v>
       </c>
@@ -6747,10 +6747,10 @@
         <v>1.0256410256410255</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="13">
         <v>4</v>
       </c>
@@ -6783,10 +6783,10 @@
         <v>1.1204819277108433</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="13">
         <v>4</v>
       </c>
@@ -6819,10 +6819,10 @@
         <v>1.1279069767441861</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="13">
         <v>4</v>
       </c>
@@ -6855,10 +6855,10 @@
         <v>0.8482142857142857</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="13">
         <v>4</v>
       </c>
@@ -6891,10 +6891,10 @@
         <v>0.79661016949152541</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="13">
         <v>4</v>
       </c>
@@ -6927,10 +6927,10 @@
         <v>0.86046511627906974</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="13">
         <v>4</v>
       </c>
@@ -6963,10 +6963,10 @@
         <v>1.1369863013698631</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="13">
         <v>4</v>
       </c>
@@ -6999,10 +6999,10 @@
         <v>1.2567567567567568</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="13">
         <v>4</v>
       </c>
@@ -7035,10 +7035,10 @@
         <v>1.240506329113924</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="13">
         <v>4</v>
       </c>
@@ -7071,10 +7071,10 @@
         <v>1.1046511627906976</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="13">
         <v>4</v>
       </c>
@@ -7107,10 +7107,10 @@
         <v>0.82608695652173914</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="13">
         <v>4</v>
       </c>
@@ -7143,10 +7143,10 @@
         <v>0.90721649484536082</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="13">
         <v>4</v>
       </c>
@@ -7179,10 +7179,10 @@
         <v>1.1046511627906976</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="13">
         <v>4</v>
       </c>
@@ -7215,10 +7215,10 @@
         <v>1.3287671232876712</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="13">
         <v>4</v>
       </c>
@@ -7251,10 +7251,10 @@
         <v>1.1176470588235294</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="13">
         <v>4</v>
       </c>
@@ -7287,10 +7287,10 @@
         <v>1.0555555555555556</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="13">
         <v>4</v>
       </c>
@@ -7323,10 +7323,10 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="13">
         <v>4</v>
       </c>
@@ -7359,10 +7359,10 @@
         <v>0.89795918367346939</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="13">
         <v>4</v>
       </c>
@@ -7395,10 +7395,10 @@
         <v>1.0813953488372092</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="13">
         <v>4</v>
       </c>
@@ -7431,10 +7431,10 @@
         <v>1.3055555555555556</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="13">
         <v>4</v>
       </c>
@@ -7467,10 +7467,10 @@
         <v>1.0813953488372092</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="13">
         <v>4</v>
       </c>
@@ -7503,10 +7503,10 @@
         <v>1.0329670329670331</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="13">
         <v>4</v>
       </c>
@@ -7539,10 +7539,10 @@
         <v>0.96875</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>4.5</v>
       </c>
@@ -7575,10 +7575,10 @@
         <v>0.85227272727272729</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>4.5</v>
       </c>
@@ -7611,10 +7611,10 @@
         <v>1.0384615384615385</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>4.5</v>
       </c>
@@ -7647,10 +7647,10 @@
         <v>1.1325301204819278</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>4.5</v>
       </c>
@@ -7683,10 +7683,10 @@
         <v>1.1395348837209303</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>4.5</v>
       </c>
@@ -7719,10 +7719,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>4.5</v>
       </c>
@@ -7755,10 +7755,10 @@
         <v>0.80508474576271183</v>
       </c>
       <c r="J201" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>4.5</v>
       </c>
@@ -7791,10 +7791,10 @@
         <v>0.87209302325581395</v>
       </c>
       <c r="J202" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>4.5</v>
       </c>
@@ -7827,10 +7827,10 @@
         <v>1.1506849315068493</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>4.5</v>
       </c>
@@ -7863,10 +7863,10 @@
         <v>1.2702702702702702</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
         <v>4.5</v>
       </c>
@@ -7899,10 +7899,10 @@
         <v>1.2531645569620253</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>4.5</v>
       </c>
@@ -7935,10 +7935,10 @@
         <v>1.1162790697674418</v>
       </c>
       <c r="J206" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>4.5</v>
       </c>
@@ -7971,10 +7971,10 @@
         <v>0.83478260869565213</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>4.5</v>
       </c>
@@ -8007,10 +8007,10 @@
         <v>0.91752577319587625</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>4.5</v>
       </c>
@@ -8043,10 +8043,10 @@
         <v>1.1162790697674418</v>
       </c>
       <c r="J209" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>4.5</v>
       </c>
@@ -8079,10 +8079,10 @@
         <v>1.3424657534246576</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
         <v>4.5</v>
       </c>
@@ -8115,10 +8115,10 @@
         <v>1.1294117647058823</v>
       </c>
       <c r="J211" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>4.5</v>
       </c>
@@ -8151,10 +8151,10 @@
         <v>1.0666666666666667</v>
       </c>
       <c r="J212" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>4.5</v>
       </c>
@@ -8187,10 +8187,10 @@
         <v>1</v>
       </c>
       <c r="J213" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>4.5</v>
       </c>
@@ -8223,10 +8223,10 @@
         <v>0.90816326530612246</v>
       </c>
       <c r="J214" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>4.5</v>
       </c>
@@ -8259,10 +8259,10 @@
         <v>1.0930232558139534</v>
       </c>
       <c r="J215" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>4.5</v>
       </c>
@@ -8295,10 +8295,10 @@
         <v>1.3194444444444444</v>
       </c>
       <c r="J216" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>4.5</v>
       </c>
@@ -8331,10 +8331,10 @@
         <v>1.0930232558139534</v>
       </c>
       <c r="J217" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>4.5</v>
       </c>
@@ -8367,10 +8367,10 @@
         <v>1.043956043956044</v>
       </c>
       <c r="J218" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>4.5</v>
       </c>
@@ -8403,10 +8403,10 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>5</v>
       </c>
@@ -8439,10 +8439,10 @@
         <v>0.90361445783132532</v>
       </c>
       <c r="J220" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>5</v>
       </c>
@@ -8475,10 +8475,10 @@
         <v>1.125</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>5</v>
       </c>
@@ -8511,10 +8511,10 @@
         <v>1.236842105263158</v>
       </c>
       <c r="J222" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>5</v>
       </c>
@@ -8547,10 +8547,10 @@
         <v>1.2564102564102564</v>
       </c>
       <c r="J223" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>5</v>
       </c>
@@ -8583,10 +8583,10 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>5</v>
       </c>
@@ -8619,10 +8619,10 @@
         <v>0.81896551724137934</v>
       </c>
       <c r="J225" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>5</v>
       </c>
@@ -8655,10 +8655,10 @@
         <v>0.91463414634146345</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>5</v>
       </c>
@@ -8691,10 +8691,10 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="J227" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>5</v>
       </c>
@@ -8727,10 +8727,10 @@
         <v>1.2876712328767124</v>
       </c>
       <c r="J228" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>5</v>
       </c>
@@ -8763,10 +8763,10 @@
         <v>1.2692307692307692</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>5</v>
       </c>
@@ -8799,10 +8799,10 @@
         <v>1.0212765957446808</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>5</v>
       </c>
@@ -8835,10 +8835,10 @@
         <v>0.84955752212389379</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
         <v>5</v>
       </c>
@@ -8871,10 +8871,10 @@
         <v>0.92708333333333337</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>5</v>
       </c>
@@ -8907,10 +8907,10 @@
         <v>1.1294117647058823</v>
       </c>
       <c r="J233" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>5</v>
       </c>
@@ -8943,10 +8943,10 @@
         <v>1.53125</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>5</v>
       </c>
@@ -8979,10 +8979,10 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="J235" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>5</v>
       </c>
@@ -9015,10 +9015,10 @@
         <v>1.0786516853932584</v>
       </c>
       <c r="J236" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>5</v>
       </c>
@@ -9051,10 +9051,10 @@
         <v>1.0105263157894737</v>
       </c>
       <c r="J237" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>5</v>
       </c>
@@ -9087,10 +9087,10 @@
         <v>0.91752577319587625</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>5</v>
       </c>
@@ -9123,10 +9123,10 @@
         <v>1.1058823529411765</v>
       </c>
       <c r="J239" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>5</v>
       </c>
@@ -9159,10 +9159,10 @@
         <v>1.484375</v>
       </c>
       <c r="J240" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>5</v>
       </c>
@@ -9195,10 +9195,10 @@
         <v>1.1190476190476191</v>
       </c>
       <c r="J241" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>5</v>
       </c>
@@ -9231,10 +9231,10 @@
         <v>1.0674157303370786</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>5</v>
       </c>
@@ -9267,10 +9267,10 @@
         <v>0.98947368421052628</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>5.5</v>
       </c>
@@ -9303,10 +9303,10 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J244" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>5.5</v>
       </c>
@@ -9339,10 +9339,10 @@
         <v>1.1095890410958904</v>
       </c>
       <c r="J245" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>5.5</v>
       </c>
@@ -9375,10 +9375,10 @@
         <v>1.131578947368421</v>
       </c>
       <c r="J246" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>5.5</v>
       </c>
@@ -9411,10 +9411,10 @@
         <v>1.141025641025641</v>
       </c>
       <c r="J247" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>5.5</v>
       </c>
@@ -9447,10 +9447,10 @@
         <v>0.90816326530612246</v>
       </c>
       <c r="J248" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>5.5</v>
       </c>
@@ -9483,10 +9483,10 @@
         <v>0.81147540983606559</v>
       </c>
       <c r="J249" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
         <v>5.5</v>
       </c>
@@ -9519,10 +9519,10 @@
         <v>0.90361445783132532</v>
       </c>
       <c r="J250" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>5.5</v>
       </c>
@@ -9555,10 +9555,10 @@
         <v>1.1643835616438356</v>
       </c>
       <c r="J251" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>5.5</v>
       </c>
@@ -9591,10 +9591,10 @@
         <v>1.273972602739726</v>
       </c>
       <c r="J252" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>5.5</v>
       </c>
@@ -9627,10 +9627,10 @@
         <v>1.2564102564102564</v>
       </c>
       <c r="J253" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>5.5</v>
       </c>
@@ -9663,10 +9663,10 @@
         <v>1.0105263157894737</v>
       </c>
       <c r="J254" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>5.5</v>
       </c>
@@ -9699,10 +9699,10 @@
         <v>0.84210526315789469</v>
       </c>
       <c r="J255" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
         <v>5.5</v>
       </c>
@@ -9735,10 +9735,10 @@
         <v>0.91752577319587625</v>
       </c>
       <c r="J256" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>5.5</v>
       </c>
@@ -9771,10 +9771,10 @@
         <v>1.1162790697674418</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
         <v>5.5</v>
       </c>
@@ -9807,10 +9807,10 @@
         <v>1.4411764705882353</v>
       </c>
       <c r="J258" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>5.5</v>
       </c>
@@ -9843,10 +9843,10 @@
         <v>1.1294117647058823</v>
       </c>
       <c r="J259" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>5.5</v>
       </c>
@@ -9879,10 +9879,10 @@
         <v>1.0666666666666667</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
         <v>5.5</v>
       </c>
@@ -9915,10 +9915,10 @@
         <v>0.98969072164948457</v>
       </c>
       <c r="J261" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>5.5</v>
       </c>
@@ -9951,10 +9951,10 @@
         <v>0.90816326530612246</v>
       </c>
       <c r="J262" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>5.5</v>
       </c>
@@ -9987,10 +9987,10 @@
         <v>1.0804597701149425</v>
       </c>
       <c r="J263" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
         <v>5.5</v>
       </c>
@@ -10023,10 +10023,10 @@
         <v>1.3768115942028984</v>
       </c>
       <c r="J264" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>5.5</v>
       </c>
@@ -10059,10 +10059,10 @@
         <v>1.0919540229885059</v>
       </c>
       <c r="J265" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>5.5</v>
       </c>
@@ -10095,10 +10095,10 @@
         <v>1.0674157303370786</v>
       </c>
       <c r="J266" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
         <v>5.5</v>
       </c>
@@ -10131,10 +10131,10 @@
         <v>0.98947368421052628</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
         <v>6</v>
       </c>
@@ -10167,10 +10167,10 @@
         <v>0.67272727272727273</v>
       </c>
       <c r="J268" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>6</v>
       </c>
@@ -10203,10 +10203,10 @@
         <v>0.70796460176991149</v>
       </c>
       <c r="J269" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
         <v>6</v>
       </c>
@@ -10239,10 +10239,10 @@
         <v>0.73275862068965514</v>
       </c>
       <c r="J270" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>6</v>
       </c>
@@ -10275,10 +10275,10 @@
         <v>0.74576271186440679</v>
       </c>
       <c r="J271" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>6</v>
       </c>
@@ -10311,10 +10311,10 @@
         <v>0.6953125</v>
       </c>
       <c r="J272" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>6</v>
       </c>
@@ -10347,10 +10347,10 @@
         <v>0.6901408450704225</v>
       </c>
       <c r="J273" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>6</v>
       </c>
@@ -10383,10 +10383,10 @@
         <v>0.64601769911504425</v>
       </c>
       <c r="J274" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>6</v>
       </c>
@@ -10419,10 +10419,10 @@
         <v>0.74336283185840712</v>
       </c>
       <c r="J275" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
         <v>6</v>
       </c>
@@ -10455,10 +10455,10 @@
         <v>0.81415929203539827</v>
       </c>
       <c r="J276" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>6</v>
       </c>
@@ -10491,10 +10491,10 @@
         <v>0.80508474576271183</v>
       </c>
       <c r="J277" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>6</v>
       </c>
@@ -10527,10 +10527,10 @@
         <v>0.752</v>
       </c>
       <c r="J278" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>6</v>
       </c>
@@ -10563,10 +10563,10 @@
         <v>0.70149253731343286</v>
       </c>
       <c r="J279" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>6</v>
       </c>
@@ -10599,10 +10599,10 @@
         <v>0.75213675213675213</v>
       </c>
       <c r="J280" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>6</v>
       </c>
@@ -10635,10 +10635,10 @@
         <v>0.81896551724137934</v>
       </c>
       <c r="J281" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>6</v>
       </c>
@@ -10671,10 +10671,10 @@
         <v>0.82203389830508478</v>
       </c>
       <c r="J282" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>6</v>
       </c>
@@ -10707,10 +10707,10 @@
         <v>0.82608695652173914</v>
       </c>
       <c r="J283" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>6</v>
       </c>
@@ -10743,10 +10743,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="J284" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>6</v>
       </c>
@@ -10779,10 +10779,10 @@
         <v>0.74803149606299213</v>
       </c>
       <c r="J285" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>6</v>
       </c>
@@ -10815,10 +10815,10 @@
         <v>0.74576271186440679</v>
       </c>
       <c r="J286" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>6</v>
       </c>
@@ -10851,10 +10851,10 @@
         <v>0.79487179487179482</v>
       </c>
       <c r="J287" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
         <v>6</v>
       </c>
@@ -10887,10 +10887,10 @@
         <v>0.86238532110091748</v>
       </c>
       <c r="J288" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>6</v>
       </c>
@@ -10923,10 +10923,10 @@
         <v>0.80341880341880345</v>
       </c>
       <c r="J289" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
         <v>6</v>
       </c>
@@ -10959,10 +10959,10 @@
         <v>0.78991596638655459</v>
       </c>
       <c r="J290" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
         <v>6</v>
       </c>
@@ -10995,10 +10995,10 @@
         <v>0.74399999999999999</v>
       </c>
       <c r="J291" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
         <v>6.5</v>
       </c>
@@ -11031,10 +11031,10 @@
         <v>0.58730158730158732</v>
       </c>
       <c r="J292" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>6.5</v>
       </c>
@@ -11067,10 +11067,10 @@
         <v>0.76923076923076927</v>
       </c>
       <c r="J293" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
         <v>6.5</v>
       </c>
@@ -11103,10 +11103,10 @@
         <v>0.79439252336448596</v>
       </c>
       <c r="J294" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>6.5</v>
       </c>
@@ -11139,10 +11139,10 @@
         <v>0.80733944954128445</v>
       </c>
       <c r="J295" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>6.5</v>
       </c>
@@ -11175,10 +11175,10 @@
         <v>0.68992248062015504</v>
       </c>
       <c r="J296" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
         <v>6.5</v>
       </c>
@@ -11211,10 +11211,10 @@
         <v>0.68055555555555558</v>
       </c>
       <c r="J297" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="8">
         <v>6.5</v>
       </c>
@@ -11247,10 +11247,10 @@
         <v>0.63478260869565217</v>
       </c>
       <c r="J298" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
         <v>6.5</v>
       </c>
@@ -11283,10 +11283,10 @@
         <v>0.8</v>
       </c>
       <c r="J299" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
         <v>6.5</v>
       </c>
@@ -11319,10 +11319,10 @@
         <v>0.8</v>
       </c>
       <c r="J300" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>6.5</v>
       </c>
@@ -11355,10 +11355,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="J301" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="8">
         <v>6.5</v>
       </c>
@@ -11391,10 +11391,10 @@
         <v>0.74603174603174605</v>
       </c>
       <c r="J302" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
         <v>6.5</v>
       </c>
@@ -11427,10 +11427,10 @@
         <v>0.63513513513513509</v>
       </c>
       <c r="J303" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
         <v>6.5</v>
       </c>
@@ -11463,10 +11463,10 @@
         <v>0.58278145695364236</v>
       </c>
       <c r="J304" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>6.5</v>
       </c>
@@ -11499,10 +11499,10 @@
         <v>0.79831932773109249</v>
       </c>
       <c r="J305" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>6.5</v>
       </c>
@@ -11535,10 +11535,10 @@
         <v>0.92380952380952386</v>
       </c>
       <c r="J306" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
         <v>6.5</v>
       </c>
@@ -11571,10 +11571,10 @@
         <v>0.81196581196581197</v>
       </c>
       <c r="J307" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
         <v>6.5</v>
       </c>
@@ -11607,10 +11607,10 @@
         <v>0.77235772357723576</v>
       </c>
       <c r="J308" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
         <v>6.5</v>
       </c>
@@ -11643,10 +11643,10 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="J309" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
         <v>6.5</v>
       </c>
@@ -11679,10 +11679,10 @@
         <v>0.57516339869281041</v>
       </c>
       <c r="J310" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="8">
         <v>6.5</v>
       </c>
@@ -11715,10 +11715,10 @@
         <v>0.75609756097560976</v>
       </c>
       <c r="J311" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="8">
         <v>6.5</v>
       </c>
@@ -11751,10 +11751,10 @@
         <v>0.76422764227642281</v>
       </c>
       <c r="J312" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="8">
         <v>6.5</v>
       </c>
@@ -11787,10 +11787,10 @@
         <v>0.75806451612903225</v>
       </c>
       <c r="J313" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="8">
         <v>6.5</v>
       </c>
@@ -11823,10 +11823,10 @@
         <v>0.74015748031496065</v>
       </c>
       <c r="J314" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="8">
         <v>6.5</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>0.74399999999999999</v>
       </c>
       <c r="J315" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
